--- a/SourceDataTables/FigS22a.xlsx
+++ b/SourceDataTables/FigS22a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
   <si>
     <t>Cell_class</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -85,14 +85,42 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -113,24 +141,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="15" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="15" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -147,7 +175,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -164,7 +192,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -181,7 +209,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -198,7 +226,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="15" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -215,7 +243,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="15" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -232,7 +260,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="15" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -249,7 +277,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -266,7 +294,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="15" t="s">
         <v>9</v>
       </c>
       <c r="B10">

--- a/SourceDataTables/FigS22a.xlsx
+++ b/SourceDataTables/FigS22a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
   <si>
     <t>Cell_class</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -99,11 +99,15 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -121,6 +125,10 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -141,24 +149,24 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="19" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="15" t="s">
+      <c r="D1" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="19" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="15" t="s">
+      <c r="A2" s="19" t="s">
         <v>1</v>
       </c>
       <c r="B2">
@@ -175,7 +183,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="19" t="s">
         <v>2</v>
       </c>
       <c r="B3">
@@ -192,7 +200,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="19" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -209,7 +217,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B5">
@@ -226,7 +234,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -243,7 +251,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="19" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -260,7 +268,7 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B8">
@@ -277,7 +285,7 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="B9">
@@ -294,7 +302,7 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="19" t="s">
         <v>9</v>
       </c>
       <c r="B10">

--- a/SourceDataTables/FigS22a.xlsx
+++ b/SourceDataTables/FigS22a.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Cell_class</t>
   </si>
@@ -75,7 +75,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -85,50 +85,14 @@
     </border>
     <border/>
     <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
-    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -143,37 +107,37 @@
   <cols>
     <col min="1" max="1" width="21" customWidth="true"/>
     <col min="2" max="2" width="18" customWidth="true"/>
-    <col min="3" max="3" width="14.5703125" customWidth="true"/>
+    <col min="3" max="3" width="15.5703125" customWidth="true"/>
     <col min="4" max="4" width="19" customWidth="true"/>
     <col min="5" max="5" width="15.5703125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="19" t="s">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7.8485499728274304</v>
+        <v>7.7845830781345704</v>
       </c>
       <c r="C2">
-        <v>2.3280102598416194e-33</v>
+        <v>1.8274903557405905e-32</v>
       </c>
       <c r="D2">
         <v>1.6871760797342192</v>
@@ -183,24 +147,24 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>1.4419105967778534</v>
+        <v>1.460751637742788</v>
       </c>
       <c r="C3">
-        <v>1.0409615829682257</v>
+        <v>1.0189077945334246</v>
       </c>
       <c r="D3">
-        <v>7.2977852916314454</v>
+        <v>7.75091575091575</v>
       </c>
       <c r="E3">
-        <v>2.1151830567873994e-09</v>
+        <v>2.265912470755709e-10</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4">
@@ -217,14 +181,14 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="19" t="s">
+      <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>1.2390562542653796</v>
+        <v>1.2552466544861984</v>
       </c>
       <c r="C5">
-        <v>1.0868446042286319</v>
+        <v>1.0716417997587477</v>
       </c>
       <c r="D5">
         <v>0</v>
@@ -234,7 +198,7 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -251,14 +215,14 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0.63317058589079311</v>
+        <v>0.6414440481797995</v>
       </c>
       <c r="C7">
-        <v>1.2893344906771518</v>
+        <v>1.2803510519679733</v>
       </c>
       <c r="D7">
         <v>0.7238209261555566</v>
@@ -268,14 +232,14 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>0.74061771561771561</v>
+        <v>0.7502951593860685</v>
       </c>
       <c r="C8">
-        <v>1.3398644076891073</v>
+        <v>1.3317220451314324</v>
       </c>
       <c r="D8">
         <v>4.5636232925952553</v>
@@ -285,14 +249,14 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>0.80661335364305653</v>
+        <v>0.81715314388581728</v>
       </c>
       <c r="C9">
-        <v>1.4274781416665778</v>
+        <v>1.4140811891761607</v>
       </c>
       <c r="D9">
         <v>4.6150490730643403</v>
@@ -302,14 +266,14 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B10">
-        <v>0.52223044049967127</v>
+        <v>0.52905427905427904</v>
       </c>
       <c r="C10">
-        <v>1.158066535229626</v>
+        <v>1.1528424683619864</v>
       </c>
       <c r="D10">
         <v>1.1233211233211233</v>
